--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.176</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.511</v>
+        <v>16.614</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.378</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.389</v>
+        <v>15.799</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.349</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.712</v>
+        <v>8.173999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.31167192380426</v>
+        <v>2.663901350567397</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.33208240698287</v>
+        <v>7.313237628015894</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.63299025904548</v>
+        <v>15.58773628714367</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.3822530687334</v>
+        <v>-7.509235232815602</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.2731193540165</v>
+        <v>6.93528796292696</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.48093559920279</v>
+        <v>10.62870824175496</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.15200786366029</v>
+        <v>-2.185518454632689</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.07673086309157</v>
+        <v>20.92389319405877</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.44910136192252</v>
+        <v>27.02832876758518</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.09098446739703</v>
+        <v>14.73282658496289</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.30533551314696</v>
+        <v>20.8902384131524</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.64661934330369</v>
+        <v>25.76949177293313</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.46701669798425</v>
+        <v>0.9205849788906129</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33.69979591862524</v>
+        <v>9.426169932405141</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.56091538093672</v>
+        <v>18.96444500659241</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.26648928045237</v>
+        <v>12.09383845213435</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.41751965327927</v>
+        <v>23.91747312357847</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.80485534042997</v>
+        <v>33.08849196323122</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.03928589657084</v>
+        <v>-0.5451065198044525</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.01244221978964</v>
+        <v>11.88570851238321</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.32892117977198</v>
+        <v>20.02738166733097</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18.89222446470099</v>
+        <v>0.8181122762349951</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.94740777713089</v>
+        <v>27.56248095534134</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>35.40905432143171</v>
+        <v>40.52372074198061</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35.22223855206812</v>
+        <v>28.67653320527669</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.54886917823096</v>
+        <v>40.59899380717904</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>40.92049860617111</v>
+        <v>48.59480871216911</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.50154313486616</v>
+        <v>4.651139483621645</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.9307261393208</v>
+        <v>28.17115048168912</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>39.81927951529791</v>
+        <v>38.2176998450332</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.98825123815659</v>
+        <v>14.45192390967894</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.2654012016931</v>
+        <v>27.09455241984717</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.66284794283919</v>
+        <v>36.74859883411261</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>20.12873352563681</v>
+        <v>-0.7043107750000139</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>33.26513383680264</v>
+        <v>16.29418808901246</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.56421199002037</v>
+        <v>23.77314248838281</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>24.97759891710117</v>
+        <v>2.243133392344017</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>38.15592342446932</v>
+        <v>35.53662100180927</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41.63529149910514</v>
+        <v>50.07833883638706</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.61142652587446</v>
+        <v>43.07763847220914</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>45.93677584792201</v>
+        <v>54.65376215974104</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>47.30589317879917</v>
+        <v>64.4458648823525</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.8307625614215</v>
+        <v>9.46434510592945</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43.31830578832027</v>
+        <v>38.66961247011011</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.20427935642495</v>
+        <v>50.36250011347907</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14.43617855848315</v>
+        <v>6.437804867068305</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.66135533431282</v>
+        <v>27.50340946332511</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.937283545295</v>
+        <v>35.89534987740994</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11.59705679550936</v>
+        <v>2.1400383713117</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.70252363491912</v>
+        <v>30.76136843382667</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.86148233715932</v>
+        <v>36.18319032647652</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.37965823017258</v>
+        <v>7.121408640901517</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.51269539791902</v>
+        <v>52.50112711298736</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.86226550032762</v>
+        <v>57.72110299139672</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.40207848941071</v>
+        <v>42.83117491653769</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.6477566096548</v>
+        <v>51.2996901886556</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.98553152095189</v>
+        <v>55.50214753130392</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>23.6133865192833</v>
+        <v>6.619097246211407</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.00546145913336</v>
+        <v>35.52007210815417</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.86583765728287</v>
+        <v>45.39735825946134</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.17162492265225</v>
+        <v>4.590363826458397</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.52196811210797</v>
+        <v>29.13655610025995</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.8823810157626</v>
+        <v>36.81214294524875</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14.03974419963588</v>
+        <v>-2.576335119022421</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.22206152132955</v>
+        <v>20.87988515542483</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.4880165190189</v>
+        <v>29.99198405292594</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.90502358364536</v>
+        <v>-1.638955509144683</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>32.16335755738072</v>
+        <v>43.35445537661612</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35.60035358840912</v>
+        <v>53.62851361573234</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.32116076158225</v>
+        <v>40.63924088585256</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>39.67628694611211</v>
+        <v>54.37424085995787</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>41.04245357955168</v>
+        <v>61.63989884963411</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.44064859168136</v>
+        <v>0.4595807875198226</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>37.02377836098225</v>
+        <v>40.38228976767135</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>39.91177097747115</v>
+        <v>49.48657554824584</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.17212772788381</v>
+        <v>6.182820652539686</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.64888014800809</v>
+        <v>32.20982967588462</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.0201122165254</v>
+        <v>41.914168026833</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>20.39947494808935</v>
+        <v>-4.050940087737121</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.74661315314222</v>
+        <v>24.52726137121861</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.99425358403285</v>
+        <v>33.70350566912299</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.26904413713222</v>
+        <v>-1.598550567711317</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.6501456699749</v>
+        <v>50.47241044893998</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>42.10582631245194</v>
+        <v>64.37140018333446</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>41.98635952984475</v>
+        <v>52.89697718602011</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>46.34082514616958</v>
+        <v>67.81437442112471</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>47.70643634757003</v>
+        <v>76.44295354014874</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>33.04751878116085</v>
+        <v>2.462892690076043</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>43.687777582507</v>
+        <v>49.74222771805995</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>46.57286238659061</v>
+        <v>60.31257987021847</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.08112068470311</v>
+        <v>14.30027351959044</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.30412801364083</v>
+        <v>27.34680859869679</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.572446930128</v>
+        <v>33.02825937728272</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>11.20864266849316</v>
+        <v>3.021603726420434</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.31608998932928</v>
+        <v>27.32845842725325</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.46760180532625</v>
+        <v>29.83428447669956</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.99179281085355</v>
+        <v>9.190691822150949</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.12368201313738</v>
+        <v>49.38727138242409</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>32.46619079392983</v>
+        <v>51.19351651635741</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.02475752546813</v>
+        <v>39.87835939208165</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.27041321406636</v>
+        <v>48.55682532094954</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37.60263879908382</v>
+        <v>50.58741587547782</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.24409450768816</v>
+        <v>16.59736372431973</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.62937266945843</v>
+        <v>31.12170835525083</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36.4854098134424</v>
+        <v>39.9075391120906</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.91645567626499</v>
+        <v>17.69373945262923</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.26523146863567</v>
+        <v>35.78358879549303</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.61822581717936</v>
+        <v>40.82939476531485</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>13.75414881277588</v>
+        <v>3.331413444391</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.93920828815698</v>
+        <v>24.5198176285392</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.19786488200278</v>
+        <v>31.01699416937357</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.62031349707131</v>
+        <v>5.693695013045424</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.87814004638717</v>
+        <v>47.35960121312199</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.30823495989517</v>
+        <v>54.46287852055448</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.04782324749263</v>
+        <v>44.58650157170059</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>39.40303694220015</v>
+        <v>57.59551672150842</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>40.76389836367844</v>
+        <v>62.36545124754785</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.17455124982206</v>
+        <v>15.38334694762565</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.75158581307198</v>
+        <v>42.20755218787502</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>39.63542380223898</v>
+        <v>50.90708939744769</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.93575043011365</v>
+        <v>16.92616418483192</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.41124812800228</v>
+        <v>36.3106398203663</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.77514937120541</v>
+        <v>43.19004180563877</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>20.1317526084723</v>
+        <v>-0.2633556170091147</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.4818823172678</v>
+        <v>26.22226480608721</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.72229136777275</v>
+        <v>32.35878684010774</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.00250014701194</v>
+        <v>3.649909831067998</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>38.38342039275006</v>
+        <v>52.22394309076985</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.83228907384638</v>
+        <v>62.76429464323498</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>41.73120688533821</v>
+        <v>54.90987237047898</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.0858483925348</v>
+        <v>69.05453716015927</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>47.44634260779613</v>
+        <v>75.3456820027763</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.79929325282889</v>
+        <v>16.02095932723625</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>43.43360318057046</v>
+        <v>50.01520028817893</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.31445439246744</v>
+        <v>60.00109507755772</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>12.72801202056619</v>
+        <v>5.467771908746595</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.69296103868217</v>
+        <v>9.45160955033553</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.98340487584814</v>
+        <v>16.97163828673905</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.760963197574902</v>
+        <v>-4.532176251029885</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.59384012729731</v>
+        <v>7.544364244109882</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.78698144392061</v>
+        <v>12.55057889951214</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.50280216895641</v>
+        <v>0.588715420121158</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>27.36913544344145</v>
+        <v>20.86018219053312</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.73089914644349</v>
+        <v>27.50056506470301</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.37260016613679</v>
+        <v>15.13841007062662</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34.57301339132169</v>
+        <v>20.70276804168527</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.90879925304621</v>
+        <v>28.94357146625249</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>21.79853749553129</v>
+        <v>12.16155665832428</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.98716005656937</v>
+        <v>18.60955406299004</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.83731112835664</v>
+        <v>28.17990800455868</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15.6670618384694</v>
+        <v>12.50384248373382</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.7621263272841</v>
+        <v>23.33638505235515</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.13887535292982</v>
+        <v>31.49460483446941</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>12.40234425484932</v>
+        <v>-0.5286873553514972</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.31756604858445</v>
+        <v>9.7787227999256</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.61910743359144</v>
+        <v>18.73738385524129</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17.22784617310863</v>
+        <v>0.3540868025748658</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>30.22405042723357</v>
+        <v>23.77967970380189</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.6750146387078</v>
+        <v>36.99604802101588</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.48621287013145</v>
+        <v>24.00100743904418</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.79859103872036</v>
+        <v>35.71858258701367</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>39.1645915687332</v>
+        <v>46.93435304045593</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>24.8146742724891</v>
+        <v>10.04000468881403</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.19904283351045</v>
+        <v>30.99432643303657</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.07669105555335</v>
+        <v>40.98593180977254</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21.47196613032623</v>
+        <v>15.2272882161418</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.69433209344106</v>
+        <v>26.70939994531426</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.08069913682114</v>
+        <v>35.2960118110861</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.57347274663526</v>
+        <v>-1.295594467340567</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.6530142680388</v>
+        <v>13.51970177643717</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.93669826492585</v>
+        <v>21.69917964030024</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.39667061410036</v>
+        <v>1.985212350724222</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.51730860210968</v>
+        <v>32.01083868909532</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.98555964923902</v>
+        <v>46.73292134011366</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.95972051368483</v>
+        <v>37.50267554789839</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>44.27116356464012</v>
+        <v>48.66779877213763</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>45.63462864361163</v>
+        <v>61.97655411145124</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.22707038839832</v>
+        <v>14.29515926616348</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>41.67058427799662</v>
+        <v>40.63578456157926</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.54547238922</v>
+        <v>52.0841928440873</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.08071916267517</v>
+        <v>12.00201064363231</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.11623457130602</v>
+        <v>23.61149928960249</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.40308679709623</v>
+        <v>28.29244804607343</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>13.18727028997801</v>
+        <v>-0.3118743449981345</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.09609667823349</v>
+        <v>23.60762816122826</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.28563240228352</v>
+        <v>26.46993107455586</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.95539830026553</v>
+        <v>7.863896379672337</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.89533484835029</v>
+        <v>44.65338352786374</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.25381573584866</v>
+        <v>46.71335935080626</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>33.87687865226216</v>
+        <v>32.8197877153669</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>38.09378370152248</v>
+        <v>39.6427929019773</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.42698373383203</v>
+        <v>43.39532943526974</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.243782684319</v>
+        <v>15.97899863815044</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>35.47180214797906</v>
+        <v>27.09542711294872</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.32034023110495</v>
+        <v>32.86267715146811</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.12403630843373</v>
+        <v>22.47654447058036</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.28908932168769</v>
+        <v>39.77635245862234</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.66056453133014</v>
+        <v>43.69746862970187</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>15.93460077067508</v>
+        <v>6.237589669791983</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.92542852652647</v>
+        <v>27.38194530202352</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.22173167119292</v>
+        <v>33.22056719241463</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20.78729726888425</v>
+        <v>10.6447504493564</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.85649542154302</v>
+        <v>49.35324034364986</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>37.30245575806104</v>
+        <v>56.60371575646062</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.10006097451911</v>
+        <v>47.24231498688464</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>41.42859185501558</v>
+        <v>59.16146232017688</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>42.79149154266803</v>
+        <v>65.17173396572903</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.37142537100485</v>
+        <v>22.59344917031518</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>38.79457405172717</v>
+        <v>47.52543060011695</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.66955485137879</v>
+        <v>52.91011985299909</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.74383062825215</v>
+        <v>19.00130799653855</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.03313890813429</v>
+        <v>36.84114627003972</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.41584751547335</v>
+        <v>41.94618182593092</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>21.91953091944456</v>
+        <v>-0.4432954645271288</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.07104668522323</v>
+        <v>24.67657089445597</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.3508998732331</v>
+        <v>30.27671324028558</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.76722457805177</v>
+        <v>5.356134652873262</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.95767882315095</v>
+        <v>50.25229347458614</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>43.42265142530572</v>
+        <v>59.98252633049562</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>43.38147073924443</v>
+        <v>53.73995822073013</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>47.70927444709731</v>
+        <v>65.50930306030838</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>49.07018209389553</v>
+        <v>73.58462165755468</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34.59337521902303</v>
+        <v>19.3206917255107</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>45.07459040437192</v>
+        <v>50.27992489154565</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>47.94801287888124</v>
+        <v>57.62494650354152</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>12.78425130610377</v>
+        <v>7.172028519278367</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.78238734516031</v>
+        <v>23.64973490110975</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.99806161787154</v>
+        <v>30.65782655722745</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>9.896329296409681</v>
+        <v>-1.45189750918286</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>22.76483645113687</v>
+        <v>27.55157684072449</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.86761748258473</v>
+        <v>32.80278695195447</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>14.60147670048203</v>
+        <v>4.946244970084887</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>27.4943348485755</v>
+        <v>51.55380456628906</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.78348375178503</v>
+        <v>53.76972142364987</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>30.30454913259225</v>
+        <v>33.12809537269216</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>34.48092166384657</v>
+        <v>40.9121380223328</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>35.79418143562397</v>
+        <v>44.11585933556033</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>21.69770639507636</v>
+        <v>3.550732393911911</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>31.87516166584648</v>
+        <v>24.53411880490523</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.67858402718067</v>
+        <v>30.80384020316493</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>15.87032684666182</v>
+        <v>17.64380354982573</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.99834504807044</v>
+        <v>40.82222121585407</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.29615643927463</v>
+        <v>45.91724689943108</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>12.69738507615905</v>
+        <v>3.790472268752321</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.64890868103696</v>
+        <v>30.95564922380276</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.85601842179303</v>
+        <v>38.93415249462967</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>17.48771562297997</v>
+        <v>6.504339357180822</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>30.51065362856098</v>
+        <v>56.5596982308253</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.88482399344814</v>
+        <v>62.70866783274467</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>33.58695054016587</v>
+        <v>48.30108525354144</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>37.87297213021358</v>
+        <v>61.52787892338777</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>39.21394709392544</v>
+        <v>67.35238917964182</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.88586542102856</v>
+        <v>12.6227428250917</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>35.25775512344702</v>
+        <v>50.27649835448031</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>38.08820375835676</v>
+        <v>55.56987983382844</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>21.78822299067617</v>
+        <v>15.82970211519556</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.03871025730233</v>
+        <v>38.84715525851904</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>37.35049307370367</v>
+        <v>45.69189398922174</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>18.96417879995836</v>
+        <v>-2.219413882608126</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.0759268294596</v>
+        <v>27.98568780753716</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.26840738486628</v>
+        <v>36.00549084792959</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>23.75948222187185</v>
+        <v>2.440831681292504</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>36.90140846717362</v>
+        <v>57.30975232129288</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>40.2972057694608</v>
+        <v>67.03183168135435</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>40.15498394635654</v>
+        <v>55.33381401994524</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>44.44060294085318</v>
+        <v>69.35608191975163</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>45.78202839503817</v>
+        <v>75.85842018355378</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31.39624718055457</v>
+        <v>9.810456512107461</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>41.82423593650023</v>
+        <v>53.26959007624274</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>44.65344733009395</v>
+        <v>60.1405780199963</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>9.869805755166221</v>
+        <v>0.5072385020409307</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.81378313363649</v>
+        <v>3.404475840475552</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.04435291450112</v>
+        <v>9.709202478733399</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>6.933781896560518</v>
+        <v>-6.791216710609721</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.74463042906555</v>
+        <v>5.873568314033744</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.86748591710611</v>
+        <v>9.185005276877103</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.62989864399295</v>
+        <v>-1.181225341753464</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.46713268554244</v>
+        <v>19.91697795143933</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.77146852518858</v>
+        <v>22.85696572571176</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.33175142211851</v>
+        <v>15.72068100232157</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.49709459232846</v>
+        <v>21.83147710598793</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.81991747721404</v>
+        <v>23.47735044905606</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>18.76265617381614</v>
+        <v>-1.239035824562226</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.91530064741447</v>
+        <v>6.239173064737425</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.73135556399636</v>
+        <v>13.2556908675762</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>12.87484400706509</v>
+        <v>8.443567799636053</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.95011501159314</v>
+        <v>20.72645637956195</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.26580275088314</v>
+        <v>28.44785474675923</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>9.655297534374649</v>
+        <v>0.3712952801860432</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.54950213013383</v>
+        <v>13.41055642826586</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.77974463508438</v>
+        <v>22.54080050133578</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.4340031077112</v>
+        <v>1.82513817714506</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.4029297321827</v>
+        <v>29.50502610287374</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.79522388757171</v>
+        <v>39.53559149069754</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.53195812015587</v>
+        <v>29.26576048823854</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>34.80766224991032</v>
+        <v>41.12493369931825</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>36.15927237191003</v>
+        <v>46.23623591360808</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>21.8668301831716</v>
+        <v>3.201395487065749</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.2155467761235</v>
+        <v>27.7295904919172</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.060303686185</v>
+        <v>35.85376515729619</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.91985465601576</v>
+        <v>10.87739281831828</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.1212022770639</v>
+        <v>23.89855308145685</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.44919220293566</v>
+        <v>32.50595679880792</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>16.04965155368708</v>
+        <v>-0.805882219403987</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.10879273017675</v>
+        <v>17.26826576153861</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.3229156067713</v>
+        <v>25.52725653508622</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20.83542988981456</v>
+        <v>3.464110065884281</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.92704336673568</v>
+        <v>37.62995549760001</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>37.33911010042968</v>
+        <v>49.72390900792995</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>37.23301498272978</v>
+        <v>44.28488292698597</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>41.50809981019788</v>
+        <v>56.798363657517</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>42.85951702382144</v>
+        <v>62.78933586950096</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.50923433722411</v>
+        <v>10.04787495551153</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>38.91522714102303</v>
+        <v>40.06257543179836</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>41.7574219507514</v>
+        <v>49.58468670871062</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>12.42866558425499</v>
+        <v>0.6523782035572587</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>24.55156031086486</v>
+        <v>0.095268564239813</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27.87974170313979</v>
+        <v>10.48266470046111</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>9.49698248455468</v>
+        <v>-2.160287360520531</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>22.49913603072663</v>
+        <v>4.161993227252164</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.72445904735759</v>
+        <v>11.42010922850765</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>14.26048861608356</v>
+        <v>-1.589334530404731</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>27.29477458165161</v>
+        <v>13.54406809705418</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>30.69624732836887</v>
+        <v>22.43657785522097</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.29123442472788</v>
+        <v>4.964014974137793</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.54524771257197</v>
+        <v>11.75962070279936</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.89886134858988</v>
+        <v>22.36221707061007</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>21.59042348851499</v>
+        <v>-1.225875340925914</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.9025693917261</v>
+        <v>-0.3252581601182989</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>34.78606210612148</v>
+        <v>5.867028804612101</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>15.45525475330148</v>
+        <v>-1.213046505674829</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.7090476925683</v>
+        <v>3.342848327076364</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>31.1233078404374</v>
+        <v>14.40001684226626</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>12.22675507485921</v>
+        <v>-5.861691374475289</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.31163144018207</v>
+        <v>-2.979312332155889</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.64534565434943</v>
+        <v>8.402748249518137</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>17.07560231544188</v>
+        <v>-9.221230699264144</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.24060855189344</v>
+        <v>7.180691967915546</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>33.73108059177525</v>
+        <v>22.75364460027999</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.50199984085033</v>
+        <v>6.00309706168964</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.86869286085879</v>
+        <v>19.02382794302845</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.25257036410125</v>
+        <v>33.02009224191217</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.70441075846977</v>
+        <v>-8.273449577798932</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.21351956064183</v>
+        <v>5.51101438452697</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.12452741613881</v>
+        <v>11.8458012834693</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>21.28768043860208</v>
+        <v>1.096500805001522</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.66903457838924</v>
+        <v>6.62416555355632</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>37.09508300064623</v>
+        <v>19.40220396351603</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.42630023623801</v>
+        <v>-6.222247721493108</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.67614204907801</v>
+        <v>0.9781817878177996</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.99365549855015</v>
+        <v>12.7183102399811</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>23.27313850915434</v>
+        <v>-8.093083243234535</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.56262361305932</v>
+        <v>14.97647602148615</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>40.07276410638306</v>
+        <v>33.48919864245659</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>40.00620872827252</v>
+        <v>19.51969760314567</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.37287180746462</v>
+        <v>32.86257715143053</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>45.75474204917225</v>
+        <v>48.93981059436149</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>31.14766431706595</v>
+        <v>-5.409850883968478</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>41.71647772157518</v>
+        <v>14.97022901634851</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>44.62565425579096</v>
+        <v>23.50584653247746</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.90196667465287</v>
+        <v>12.00200800504104</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.05557043497017</v>
+        <v>24.8152533974352</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.3051833238419</v>
+        <v>35.88369829947425</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.10117842061705</v>
+        <v>5.255148884268348</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.1395849528909</v>
+        <v>36.47879925977617</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.27376480721184</v>
+        <v>40.83818236403251</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.87691123833185</v>
+        <v>13.31052481934722</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.93523063900857</v>
+        <v>57.95858808741178</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.25832005762727</v>
+        <v>62.10198062131845</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.80993218356944</v>
+        <v>45.4558258211752</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>38.03135495639243</v>
+        <v>51.9582106289598</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>39.35631494370278</v>
+        <v>53.42025436034685</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.10449331926313</v>
+        <v>22.10898498311847</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.41149375114465</v>
+        <v>37.36406571158851</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>38.25323112477417</v>
+        <v>50.84228230680203</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>18.72169974746514</v>
+        <v>7.095506353967547</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.00279773688867</v>
+        <v>24.56177026204784</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.33521744228225</v>
+        <v>33.36404891383033</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>15.6278502637374</v>
+        <v>-5.271833036897394</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.74526882385046</v>
+        <v>20.87296790030632</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.98452666627402</v>
+        <v>27.77009915217183</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.48693448530145</v>
+        <v>-1.940999610254469</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.67294832040299</v>
+        <v>43.08022018941685</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>37.08173791137467</v>
+        <v>50.90386437943225</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.81495493774905</v>
+        <v>38.26159592382548</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>41.1461070982066</v>
+        <v>49.19775617062</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>42.49932655056239</v>
+        <v>52.84496419688838</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.01612325289413</v>
+        <v>9.277848396828258</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.51634300275991</v>
+        <v>37.68635314052784</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>41.3848960451397</v>
+        <v>47.74474223944071</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.59557652947435</v>
+        <v>10.0816626684509</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.00055145617978</v>
+        <v>28.04925669729108</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.34583181460551</v>
+        <v>39.23381747244026</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>21.85766197633468</v>
+        <v>-3.958593342006598</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>35.13698245679893</v>
+        <v>26.28254138635034</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>38.36050126119648</v>
+        <v>33.5221820783547</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>26.71903949920675</v>
+        <v>0.6710995680290743</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.02531035064469</v>
+        <v>51.77404588355843</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>43.45467589620579</v>
+        <v>63.67622473653478</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>43.34518725009421</v>
+        <v>52.37483503298263</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>47.67581468606261</v>
+        <v>64.25826706619866</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>49.02898796466077</v>
+        <v>69.45337276143187</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.48860484062568</v>
+        <v>13.78779482950585</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.04520727943388</v>
+        <v>48.73051923681408</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>47.91156990664413</v>
+        <v>61.16690562828241</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>8.402924392081704</v>
+        <v>-0.5536196709730241</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.34718518826243</v>
+        <v>1.119638127671589</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.59014677948808</v>
+        <v>10.05313312635846</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>5.474471395329317</v>
+        <v>-4.679104306690252</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>18.27739637879385</v>
+        <v>-0.396401567687807</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.41562331732622</v>
+        <v>6.691207928091057</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>10.14681607557332</v>
+        <v>-1.357448972488161</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.98222776079244</v>
+        <v>12.25261065311534</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.29879332762284</v>
+        <v>19.56817067018019</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.8453591488608</v>
+        <v>6.965957599446806</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>30.01324152118938</v>
+        <v>11.44663013522934</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.34330387420796</v>
+        <v>17.90575969825018</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>17.24976937698748</v>
+        <v>-6.821139139644604</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.42712572892183</v>
+        <v>-0.7502247033265554</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>30.24702489383744</v>
+        <v>6.531885208242169</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>11.30551343171958</v>
+        <v>1.229446636544605</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.37852088500319</v>
+        <v>9.866323081705229</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.70752354709226</v>
+        <v>20.57272270335953</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>8.094820414798928</v>
+        <v>-2.329146592185172</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>20.97878587671924</v>
+        <v>0.9179991090603288</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.22541238948408</v>
+        <v>13.84628680792902</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>12.84820306695799</v>
+        <v>-2.799361540640763</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.81267293505719</v>
+        <v>14.90922889898202</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.21813524422837</v>
+        <v>29.46613235463894</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.93932332909701</v>
+        <v>13.19848183478909</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.21733402398756</v>
+        <v>23.68688512600648</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.57610995197611</v>
+        <v>34.16988594818891</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.250114044146</v>
+        <v>-7.744732283912629</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.62092760569737</v>
+        <v>11.71810326194104</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.47001068469992</v>
+        <v>21.02344423412979</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>17.37141436377807</v>
+        <v>6.220752158427711</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.57038544320465</v>
+        <v>15.84417384233783</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>32.91064791405914</v>
+        <v>27.54248023915236</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>14.50977406402551</v>
+        <v>-1.248182087145754</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.55869141393263</v>
+        <v>6.64268946412022</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.78783958245354</v>
+        <v>18.95159902371536</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.27183961852977</v>
+        <v>0.6014247392534706</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>32.3588234585906</v>
+        <v>24.73783449331136</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.7830036646378</v>
+        <v>41.60725038324944</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.66234876111641</v>
+        <v>29.63245075396611</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>39.93860341105159</v>
+        <v>40.40156235589504</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>41.29682167756526</v>
+        <v>53.06071271801403</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.91522180932629</v>
+        <v>0.9486448124327005</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>37.34240007162099</v>
+        <v>25.60154675928502</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>40.18885941196069</v>
+        <v>36.75382677700415</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>11.2044561902493</v>
+        <v>-8.674973506358771</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.29167998414423</v>
+        <v>-1.881791586678521</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.53608161133015</v>
+        <v>3.862045179761576</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>8.276106261665188</v>
+        <v>-18.39560458787772</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.23529580572048</v>
+        <v>-2.603408391556389</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>24.36461263972441</v>
+        <v>0.6397094191497921</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.99328679812329</v>
+        <v>-14.65660520059749</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.98078477779771</v>
+        <v>15.03632057550771</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.2992137447842</v>
+        <v>17.89641157771062</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.83847833212347</v>
+        <v>5.570474835678677</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.04490337020913</v>
+        <v>11.20376799129783</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>34.3695318442921</v>
+        <v>14.94211057939065</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>20.14512920682444</v>
+        <v>-13.08500397493032</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>30.42006397071621</v>
+        <v>-3.141922426836576</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.24737580132835</v>
+        <v>2.567683784195591</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.27632907772127</v>
+        <v>15.49378619471518</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.49118285733065</v>
+        <v>29.00954551894067</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.81973588249128</v>
+        <v>34.29761346520206</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>11.06492129667925</v>
+        <v>3.571431483530201</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.10491391839729</v>
+        <v>18.61633099261075</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.340784499674</v>
+        <v>26.04515638812375</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>15.86702471802367</v>
+        <v>4.848715026312743</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.98233773804683</v>
+        <v>38.43277508721509</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>32.38782359558419</v>
+        <v>46.66296153083201</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>32.10745358017773</v>
+        <v>35.73446393918333</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>36.42336301462004</v>
+        <v>46.48264356292087</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>37.77604776966355</v>
+        <v>52.93893018895993</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>23.32057131937861</v>
+        <v>10.05142149146594</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.7880232827218</v>
+        <v>34.2042545666181</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.64323049147259</v>
+        <v>41.29867006538495</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.34234675636122</v>
+        <v>18.51401994004489</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.68324639703459</v>
+        <v>33.47606755335737</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.02372911269269</v>
+        <v>40.49920988093216</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>17.48374030016259</v>
+        <v>2.32473460775898</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>30.68794522933409</v>
+        <v>22.83557242211202</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>33.90655543912768</v>
+        <v>29.77653579462601</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>22.29249515461018</v>
+        <v>5.577342510826934</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>35.53035902958418</v>
+        <v>46.1008129398267</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>38.95561201652933</v>
+        <v>57.51693262982393</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>38.8327344330264</v>
+        <v>48.83500320073499</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>43.14820185779382</v>
+        <v>60.78390651991087</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>44.50102715709931</v>
+        <v>68.35882737910244</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.98680867469131</v>
+        <v>12.90543980510453</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>40.5116325087652</v>
+        <v>44.57306876583995</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>43.36484264611084</v>
+        <v>52.34379893000545</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>8.20696285555406</v>
+        <v>9.188632830065043</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.16269946219835</v>
+        <v>8.692883363933557</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.39997093430599</v>
+        <v>16.33305261530034</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>5.216014684701321</v>
+        <v>2.228320609116803</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.03527510988843</v>
+        <v>8.38090123391471</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.15693919881882</v>
+        <v>14.58241638127295</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>9.903730925745771</v>
+        <v>6.90045364403468</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.75287507243449</v>
+        <v>20.51279426094754</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.06386441909485</v>
+        <v>27.1386398387074</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.59786225335557</v>
+        <v>14.05723191010606</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.76440058917225</v>
+        <v>18.77238548945421</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>31.08933204764153</v>
+        <v>24.88912914984956</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>17.00639030768247</v>
+        <v>6.535543693260887</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.18323597598169</v>
+        <v>6.266228819650944</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.00505502748282</v>
+        <v>14.0137698423554</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.91935601913162</v>
+        <v>2.032870644929201</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.99980245296158</v>
+        <v>6.664901995942781</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.32425125700864</v>
+        <v>15.17267437174311</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>7.642445872386165</v>
+        <v>-5.407311049725411</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>20.53871592897494</v>
+        <v>-2.679583826210223</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.76967877352457</v>
+        <v>8.758139742687003</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>12.41020170589216</v>
+        <v>-5.575688600903053</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.38428240558391</v>
+        <v>9.725468301141685</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.78542752327201</v>
+        <v>23.18230886522516</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.49411142178158</v>
+        <v>7.262695142494433</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.76926649427977</v>
+        <v>16.55395587947677</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.12351818863392</v>
+        <v>26.66828741455646</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.81040677737822</v>
+        <v>-6.093094936476039</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.17777836312517</v>
+        <v>5.376195458261289</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.02929023998993</v>
+        <v>14.76159739781908</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.20100544954235</v>
+        <v>12.93528926012493</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.41211389282964</v>
+        <v>19.47647385835324</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>32.74441617632331</v>
+        <v>28.70966208606219</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>14.27820546611408</v>
+        <v>0.002399613936130862</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.34398609439127</v>
+        <v>8.615371652428347</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.55419979426199</v>
+        <v>18.97098256667291</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>19.05670263340877</v>
+        <v>3.229665312721774</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>32.15809883938981</v>
+        <v>26.26449777713662</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>35.57471185132592</v>
+        <v>41.76807379551765</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.4445785170813</v>
+        <v>28.56391860891386</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>39.71956484173616</v>
+        <v>38.77846518162852</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>41.07219251183855</v>
+        <v>49.9052722698902</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.69946488739042</v>
+        <v>5.95691627246168</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>37.12648692271264</v>
+        <v>24.34794216059293</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>39.97319863454557</v>
+        <v>33.8901786019794</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.66878679914711</v>
+        <v>3.78450692523273</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.50365734407702</v>
+        <v>-0.1172086710853399</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.70910700074674</v>
+        <v>2.483038237790336</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.617920156876192</v>
+        <v>0.4449859764711839</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.30868948284653</v>
+        <v>-0.137751037731551</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.39931608613042</v>
+        <v>2.450911970681727</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.243015863476753</v>
+        <v>1.004197320354077</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.96318921379079</v>
+        <v>6.905377237036159</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.24183583312488</v>
+        <v>8.703495169165617</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.77816027708334</v>
+        <v>-0.7460133611760149</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.9119643117366</v>
+        <v>-0.8852668150558181</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.22532794945024</v>
+        <v>4.614375080804532</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.27595861115239</v>
+        <v>-1.564722492301986</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.35911804024624</v>
+        <v>-6.970808149342066</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.15109414241778</v>
+        <v>-3.789180870042973</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.513789926531654</v>
+        <v>-1.208029499543461</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.47450713449009</v>
+        <v>-0.1108268134453461</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.76575166303331</v>
+        <v>2.844558465330405</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.181027821089394</v>
+        <v>-5.241592372041328</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.95084840378086</v>
+        <v>-8.518526715268099</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.14933475851957</v>
+        <v>-1.381351022969245</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.887610345742736</v>
+        <v>-9.079769754136752</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.73382691412451</v>
+        <v>-1.19067700804084</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.1012178508838</v>
+        <v>6.378229639797578</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.81132160492407</v>
+        <v>-5.276309428113198</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.05340547251456</v>
+        <v>-0.6400508487059291</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>30.3954250295126</v>
+        <v>8.324337893694715</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.21596726788304</v>
+        <v>-11.7170666845487</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.48953483462568</v>
+        <v>-5.986174276045194</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.31071525828895</v>
+        <v>-1.245094925561762</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.85178250621917</v>
+        <v>12.09977834683944</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.94264423884441</v>
+        <v>15.06052518183453</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.24322455901759</v>
+        <v>18.86927630927545</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>10.86992093418152</v>
+        <v>1.663414490454382</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>23.80844917738304</v>
+        <v>4.266120691948597</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.98772171564512</v>
+        <v>10.42958912492585</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.58826274896212</v>
+        <v>1.669247414410361</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.56134811108383</v>
+        <v>17.22442512849508</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>31.94569197565981</v>
+        <v>26.89331482639092</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.81485755687362</v>
+        <v>18.21108272128945</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.05716650519577</v>
+        <v>23.86237236981263</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>37.39833504814652</v>
+        <v>33.8077647699043</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.15832326467915</v>
+        <v>2.307670478615929</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.49130290306914</v>
+        <v>14.88830430011788</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>36.30881697643646</v>
+        <v>19.91232281847084</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>14.40162898692649</v>
+        <v>19.01024191906738</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.54379069472206</v>
+        <v>24.47524123942157</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.87417673450181</v>
+        <v>32.5178699699127</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>11.43174404067033</v>
+        <v>5.213309365858006</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.4536836595037</v>
+        <v>19.69105852292088</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.68280858013385</v>
+        <v>21.98359156329949</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>16.2539173594934</v>
+        <v>13.31926811304842</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.30972377950587</v>
+        <v>36.61749483679662</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.7122031143778</v>
+        <v>41.67967236767183</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.32765058023732</v>
+        <v>31.46427583465782</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.57819416392431</v>
+        <v>37.78599801938756</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.92996844826328</v>
+        <v>40.04381969954123</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.61562937801257</v>
+        <v>24.74768080740776</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.94705202424787</v>
+        <v>30.55018338743721</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>36.83608958973639</v>
+        <v>37.13504106524918</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>17.27170252360737</v>
+        <v>8.341368302104438</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.54402390904193</v>
+        <v>18.57413648805801</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.96130177527166</v>
+        <v>26.26965147076271</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>14.00213356232913</v>
+        <v>-7.843064966382702</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.10540090666727</v>
+        <v>2.058532806633291</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.44391757466061</v>
+        <v>7.500182681806219</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>18.90673071073776</v>
+        <v>-4.941077928375027</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.09254726753104</v>
+        <v>19.055906225591</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.5848462723106</v>
+        <v>29.71719115710648</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>35.37451993381616</v>
+        <v>19.29125787355811</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>39.73787986454747</v>
+        <v>29.72535707351268</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>41.11990389228925</v>
+        <v>34.40764725710189</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.56615177503908</v>
+        <v>5.268040675197323</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>37.09482542383515</v>
+        <v>22.63069961926722</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>40.01168771294431</v>
+        <v>28.65705292218614</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.16791646880419</v>
+        <v>16.77701655320872</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.5697047940731</v>
+        <v>28.02509419822801</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>38.99714153972759</v>
+        <v>36.89771048741383</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>20.26772039714767</v>
+        <v>-2.072403184475338</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.53839682425023</v>
+        <v>12.8502220649208</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.85901043335681</v>
+        <v>18.20588797216446</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.17043146986123</v>
+        <v>2.92646810840645</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>38.48273080138868</v>
+        <v>33.79874508146369</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.99290872051129</v>
+        <v>46.70455932538403</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>41.94714587185091</v>
+        <v>40.70134191201008</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>46.30957454932572</v>
+        <v>51.19885068585565</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>47.68940872587433</v>
+        <v>57.79810461992273</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.07685498281274</v>
+        <v>16.20755952672233</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>43.66572447644553</v>
+        <v>39.62397022834567</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>46.5795651250175</v>
+        <v>47.67106846859282</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.63404546994379</v>
+        <v>14.13948506043438</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.64932957273536</v>
+        <v>29.13791330443298</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.88698815386866</v>
+        <v>36.61806158956057</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>9.79126976094933</v>
+        <v>7.136113892219239</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.67035142304304</v>
+        <v>30.20042439188517</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.79454863859945</v>
+        <v>34.4886048551697</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.49490836047566</v>
+        <v>13.09061015010237</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.40425942609641</v>
+        <v>47.82518041033387</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.71506371064494</v>
+        <v>54.08875465541524</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.27121433083703</v>
+        <v>45.29005636400473</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>34.45271169892561</v>
+        <v>50.43157469412333</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.77678560468744</v>
+        <v>54.03054892658119</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.61533942095939</v>
+        <v>13.91016764434891</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.84821137287571</v>
+        <v>34.15701571873726</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.66970502763753</v>
+        <v>43.88806237497545</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>15.29384078631925</v>
+        <v>5.77580330777084</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.43383352268087</v>
+        <v>24.36344865607085</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.75593603572679</v>
+        <v>31.65644911341387</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>12.16508472847273</v>
+        <v>-2.638162518831809</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.12143867364534</v>
+        <v>15.63081854079367</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.35233190323256</v>
+        <v>23.86466786228301</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.94889680501191</v>
+        <v>-1.700323751630567</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.9831329778471</v>
+        <v>33.12740737995485</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.3812752435135</v>
+        <v>44.67999304446492</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.11418406641229</v>
+        <v>35.13559410306136</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>37.403765080951</v>
+        <v>45.36121159670726</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>38.75613200538798</v>
+        <v>51.89257281412181</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>24.3674948771125</v>
+        <v>0.2302543765494782</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.78953887475679</v>
+        <v>30.09363679312787</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>37.63886238429435</v>
+        <v>40.39097731955829</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.27442235605921</v>
+        <v>6.191262337969942</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>33.54026300165625</v>
+        <v>26.34577672403786</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.87306048683486</v>
+        <v>35.62375264931586</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>18.49880264753043</v>
+        <v>-4.834151825184495</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>31.6192286762972</v>
+        <v>18.73701456890076</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.83191939300566</v>
+        <v>27.17148267368315</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>23.28867490050177</v>
+        <v>-2.792643020585064</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.44522144167587</v>
+        <v>38.98269233849682</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>39.86178810369489</v>
+        <v>54.23922838080982</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.75279236616713</v>
+        <v>46.9188434030744</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>44.04164348932444</v>
+        <v>58.15438850558392</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>45.39362435327293</v>
+        <v>66.61103735306386</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.94851172688571</v>
+        <v>1.781186413903168</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>41.42718833373842</v>
+        <v>38.8255362593756</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>44.27392378687291</v>
+        <v>50.91511274028611</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>17.23603736925296</v>
+        <v>12.59614247680646</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.40724120717306</v>
+        <v>23.85464619443492</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.71621878788636</v>
+        <v>32.75308673039395</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>14.37215891300503</v>
+        <v>4.570903627201158</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.4258714591673</v>
+        <v>29.70800240433423</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>30.63486094575143</v>
+        <v>32.91731776532336</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>19.19536047564231</v>
+        <v>10.42850780627623</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>32.27817440432798</v>
+        <v>46.93240139632277</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.65881106390319</v>
+        <v>51.85634174689311</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.29208281202443</v>
+        <v>36.31240996567246</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.54613408968908</v>
+        <v>42.28738488887774</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>40.88780475256281</v>
+        <v>45.75637494841688</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.57487722024225</v>
+        <v>14.77712202010308</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.91852003107729</v>
+        <v>30.41734779028392</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>39.79343612256766</v>
+        <v>41.34214010507799</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>20.08154496187836</v>
+        <v>9.451714299598461</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>32.3812443922457</v>
+        <v>25.97971975637448</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>35.77491383474012</v>
+        <v>33.95176839014772</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>16.91424842418657</v>
+        <v>-2.834421456827048</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.0478640447858</v>
+        <v>17.96249340104793</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.36381244461884</v>
+        <v>24.11169441599655</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>21.82156132877911</v>
+        <v>-1.483954776734183</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.03263520662959</v>
+        <v>36.17985113499211</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.50084641259894</v>
+        <v>46.22030948591704</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>38.3095496909764</v>
+        <v>34.3622241942619</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.67537075094116</v>
+        <v>45.63544900014216</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>44.04681752295024</v>
+        <v>51.42595057549782</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.49714945195</v>
+        <v>4.595714730400882</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.03557819801529</v>
+        <v>33.62822326804397</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.93670736685257</v>
+        <v>42.95813806039727</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.7323629124996</v>
+        <v>10.41790109748964</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.15646752859982</v>
+        <v>27.60915754706386</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>41.56105384890434</v>
+        <v>36.8152217985398</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>22.93602804701077</v>
+        <v>-3.659329544347887</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.23076679376504</v>
+        <v>21.32547082657819</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.52983194384223</v>
+        <v>27.37529706906409</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>27.83710950298011</v>
+        <v>-1.306046309943017</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.16939441408</v>
+        <v>42.69902773530796</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.65628571512519</v>
+        <v>55.27513274026431</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.62727304401893</v>
+        <v>46.85544770979246</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>48.99193514709175</v>
+        <v>58.18797406222748</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>50.36131921025522</v>
+        <v>66.06470453682331</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>35.75573605380949</v>
+        <v>6.812475354029583</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.35162243523762</v>
+        <v>42.16016950244868</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.25056250619382</v>
+        <v>53.52854358589667</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>6.93418790408526</v>
+        <v>21.73350554465153</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.61914387442276</v>
+        <v>26.76463285496737</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>23.05838151370962</v>
+        <v>35.00480688660114</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>3.63606466645841</v>
+        <v>22.43174411563961</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>17.24308267537182</v>
+        <v>41.61077384004474</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>20.57406821617118</v>
+        <v>44.17644214112595</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>8.676167606797186</v>
+        <v>19.22813702951941</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.30982380813854</v>
+        <v>47.07991825795546</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.82585147187247</v>
+        <v>52.75959991613789</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.47560638547066</v>
+        <v>38.98902126237373</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.92156728466015</v>
+        <v>44.19475658216884</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.31919755171039</v>
+        <v>48.9330619160032</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>16.44863704893585</v>
+        <v>25.1124489325214</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.22952883905577</v>
+        <v>30.82172495415304</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>30.21441048903251</v>
+        <v>42.26251592606138</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>9.927073074966744</v>
+        <v>20.36182412791866</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.74916743438941</v>
+        <v>30.61615149117058</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.27697691792363</v>
+        <v>38.61409901796678</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>6.311333811888264</v>
+        <v>19.3558685269348</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.00544382329552</v>
+        <v>34.17464982547558</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.44815150395693</v>
+        <v>40.05784079975932</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.44058751392064</v>
+        <v>9.737675559003176</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.21124931661952</v>
+        <v>38.82223451660815</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.81888041569669</v>
+        <v>50.29033026246567</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.65204603420304</v>
+        <v>38.46161363618094</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.21510691048432</v>
+        <v>48.50863354002195</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>34.64352420174257</v>
+        <v>55.57679493926661</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>19.52388954327312</v>
+        <v>15.84311275672942</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.51048668171187</v>
+        <v>34.77000450136799</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.52274256841655</v>
+        <v>45.37454353123412</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>16.18381068816505</v>
+        <v>19.66097201660414</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.13507832195062</v>
+        <v>30.62680251017693</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>32.67585598131178</v>
+        <v>39.26471159105895</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>12.95887597194007</v>
+        <v>17.16770095322702</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>26.82079892545866</v>
+        <v>36.36818865907127</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>30.24698975732224</v>
+        <v>41.52063881926063</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.08547967043697</v>
+        <v>9.265365477048672</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.98196716360979</v>
+        <v>44.83884719489748</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>35.61049731765469</v>
+        <v>58.0220103570685</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>35.61018110849836</v>
+        <v>50.84394061983737</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>40.172032200264</v>
+        <v>60.49799764287449</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>41.59933229962903</v>
+        <v>69.39285507374754</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.41922386910026</v>
+        <v>17.66344181748547</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.46491564231106</v>
+        <v>42.51512727353449</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>40.47597088418242</v>
+        <v>55.35889476159687</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>14.1432899432292</v>
+        <v>8.095956620464232</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.33101861656492</v>
+        <v>23.91863045467865</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.60574223505248</v>
+        <v>31.07431687805706</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>11.29875137264394</v>
+        <v>2.275473523493201</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.3632877062527</v>
+        <v>25.88592038061928</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.52911822413294</v>
+        <v>27.39071311697591</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>16.0662775627335</v>
+        <v>7.352992925465582</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.16026361117789</v>
+        <v>44.02865752487709</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>32.50835196726071</v>
+        <v>48.54078926704116</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>32.10128721892963</v>
+        <v>40.40106167153735</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.34385404709013</v>
+        <v>44.8580642025052</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>37.67699972860976</v>
+        <v>47.20872853364092</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>23.33890232037263</v>
+        <v>5.570265034484304</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.71412481901773</v>
+        <v>29.57871596749767</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.56546078296225</v>
+        <v>37.27120268890774</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.91000090730645</v>
+        <v>2.816188379921609</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.22247034010092</v>
+        <v>22.82484190633144</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.58186666057527</v>
+        <v>29.13079845115744</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>13.77362028949651</v>
+        <v>-4.640838809392111</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.91490682302396</v>
+        <v>14.96960073495472</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.18780527840465</v>
+        <v>19.86371902902422</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>18.62275730481629</v>
+        <v>-4.59300633651414</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.84149007118772</v>
+        <v>32.25065994938463</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.2770926947908</v>
+        <v>41.67606340371798</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.04761520129256</v>
+        <v>33.79553918294836</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>39.39993891676442</v>
+        <v>42.92630476948914</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>40.76198607122181</v>
+        <v>47.51455519314601</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.19384564680333</v>
+        <v>-5.107511481688423</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.75974922976404</v>
+        <v>29.23547481991656</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.63836448902212</v>
+        <v>37.09996273665594</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>22.73738203643794</v>
+        <v>3.995288955940492</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.17488095826051</v>
+        <v>24.97872379846923</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>38.54510206516088</v>
+        <v>33.22650006818309</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>19.96257294102169</v>
+        <v>-5.484862911064983</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.26654372667755</v>
+        <v>18.64187128111272</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.52140217309856</v>
+        <v>23.61645031924419</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>24.81238707231326</v>
+        <v>-4.496349165583499</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.15262943805649</v>
+        <v>38.79706422176247</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>41.60681184536567</v>
+        <v>51.5356845498773</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>41.53754582928379</v>
+        <v>46.91790920605703</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>45.88850748570948</v>
+        <v>57.22366910834566</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>47.24946504244774</v>
+        <v>64.21022426287614</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>32.6260956040241</v>
+        <v>-2.234405101340901</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>43.24836951623202</v>
+        <v>38.82211689974737</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.12427670704311</v>
+        <v>48.80014525595624</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.94423032880248</v>
+        <v>3.812449679306379</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.75097221986911</v>
+        <v>7.375418892509909</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>26.96516779417565</v>
+        <v>14.08787851381055</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>9.051031144482316</v>
+        <v>-4.656938002725287</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.71437703874322</v>
+        <v>7.937172864320853</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.83134911728204</v>
+        <v>10.22850508245757</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.70689820170418</v>
+        <v>0.4570286723689883</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.40030973768222</v>
+        <v>18.99042390108813</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.68591239294634</v>
+        <v>24.5312607606763</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.31215826718425</v>
+        <v>13.14715322205569</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>33.43820081687171</v>
+        <v>17.69690326886044</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>34.75153230229864</v>
+        <v>21.34780642743426</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.83164529378145</v>
+        <v>0.9522976825686946</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.88824959611756</v>
+        <v>4.679419694447699</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>33.6810765394136</v>
+        <v>12.27404369445112</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>14.84284073506101</v>
+        <v>5.65130666742024</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.77908657812308</v>
+        <v>16.93444634922485</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.07933598916062</v>
+        <v>25.00293984079562</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>11.66052686970407</v>
+        <v>-3.007228735244045</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>24.40610124920348</v>
+        <v>8.670045594076409</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.63085497089112</v>
+        <v>15.80265860444754</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>16.39807524964709</v>
+        <v>-1.742855202507318</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.22106718306909</v>
+        <v>21.1275696613396</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>32.59551691230448</v>
+        <v>34.06383821280269</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.39054051060974</v>
+        <v>20.79347355963649</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.62626638565363</v>
+        <v>31.29963174263157</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>37.96964437486955</v>
+        <v>37.56430795369772</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>23.81509851136184</v>
+        <v>-1.609016228363902</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.06538492601514</v>
+        <v>18.25361965985085</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>36.88698474959023</v>
+        <v>27.34400354342352</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>20.64408046194866</v>
+        <v>8.88033810315498</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>32.70487247856615</v>
+        <v>21.0607471123729</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.01523524922833</v>
+        <v>29.88912280647372</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>17.82183069020464</v>
+        <v>-2.972256894810844</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>30.72927035681341</v>
+        <v>13.77630067822323</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.93699635187812</v>
+        <v>20.07856592132468</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>22.55782557498441</v>
+        <v>0.6702684122773768</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.50245096924236</v>
+        <v>30.01817230908861</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.89435189132199</v>
+        <v>44.81766293043408</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.84954874332945</v>
+        <v>35.42867739246896</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>43.08436036025954</v>
+        <v>45.79519938897451</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.42514491015909</v>
+        <v>53.37527485430039</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.21488965957592</v>
+        <v>3.649662397886484</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>40.52280510561132</v>
+        <v>29.29121363058271</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>43.34117388337074</v>
+        <v>39.95378715773178</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>6.527320017663804</v>
+        <v>6.992353693268225</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.19411148981322</v>
+        <v>9.818613148719944</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.63411589408522</v>
+        <v>19.2949762648535</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.225811954352363</v>
+        <v>2.078790736968809</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>16.81273105990945</v>
+        <v>17.01379886352521</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.14563846229661</v>
+        <v>21.55332021944519</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>8.260486092424788</v>
+        <v>4.239883235435453</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>21.87502025806048</v>
+        <v>27.39900129057801</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.39177222691127</v>
+        <v>34.91280385368758</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.04526903826029</v>
+        <v>21.64334129148737</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.48621171302183</v>
+        <v>26.96913130003322</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.88457436284021</v>
+        <v>33.09506216245043</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.03111154671418</v>
+        <v>6.741683544320335</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.79919203114883</v>
+        <v>11.86004627576697</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.78369240414679</v>
+        <v>24.4950094677127</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>9.501818137637979</v>
+        <v>6.911561512240606</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.30578645075632</v>
+        <v>15.30959291154977</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.83478475423172</v>
+        <v>25.31902830337964</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>5.883110615799417</v>
+        <v>0.2652982872605456</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.55703734379181</v>
+        <v>11.21073286527337</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.00208752850168</v>
+        <v>19.89588797239966</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>11.0063603231256</v>
+        <v>-3.568292187645103</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.75795547179301</v>
+        <v>21.17915882879482</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.36672819443588</v>
+        <v>35.29129414198938</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.2027066844816</v>
+        <v>22.61551387218857</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.76078456766556</v>
+        <v>32.92411594395087</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>34.19008949268189</v>
+        <v>41.66564527619116</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.08724591319469</v>
+        <v>-1.209051893540479</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.06105895440688</v>
+        <v>17.21422296582503</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>33.07323750389087</v>
+        <v>29.71976680403311</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.77000255285013</v>
+        <v>5.197318607218616</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.70350210666028</v>
+        <v>14.25239245769654</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>32.24522511764666</v>
+        <v>24.71210825979652</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>12.54182391764252</v>
+        <v>-3.212483981141478</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.38404726994482</v>
+        <v>12.14287819314893</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.81242527981641</v>
+        <v>19.88957616715261</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>17.66286927441972</v>
+        <v>-5.372155018976205</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.54067195963575</v>
+        <v>25.8366269742591</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.17005725588005</v>
+        <v>41.4434323059938</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.17276472703237</v>
+        <v>34.02085496590826</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>39.72956557806287</v>
+        <v>43.61131861693212</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>41.15761554738967</v>
+        <v>54.13967868946938</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.99449311011228</v>
+        <v>-0.2891977068175073</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.02748433308211</v>
+        <v>23.73057586437772</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>40.03829137932061</v>
+        <v>38.52279569814415</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>18.0195912392504</v>
+        <v>20.09921988301891</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.99045859926245</v>
+        <v>25.39547865737819</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.23042738160621</v>
+        <v>34.65193746188083</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>15.24678085164216</v>
+        <v>7.138587431082296</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.09684370172926</v>
+        <v>32.65884060811624</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.22916544479655</v>
+        <v>34.90658955571286</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.99354934609502</v>
+        <v>16.01683260794729</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.8621719216238</v>
+        <v>50.38865720939523</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.17418335894129</v>
+        <v>55.21559452525712</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.772905794337</v>
+        <v>40.89392722996088</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>39.94769835854001</v>
+        <v>46.17401520139872</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>41.27112027300391</v>
+        <v>48.46638073511467</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>27.17615156046405</v>
+        <v>26.7613519203435</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>37.34953340034811</v>
+        <v>34.94245009344327</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>40.18479343198862</v>
+        <v>46.31250237307762</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.75029560351914</v>
+        <v>18.46977366046839</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.84741168965277</v>
+        <v>28.44279938106352</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.17127092023308</v>
+        <v>36.7457012174666</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>17.68388232739808</v>
+        <v>1.25388394617087</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.6115267443286</v>
+        <v>21.56527523000616</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>33.84972410772895</v>
+        <v>26.99524015333916</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>22.51138982082076</v>
+        <v>4.539183691996822</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>35.50638818615216</v>
+        <v>39.66425847460177</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>38.90511609121976</v>
+        <v>49.71441935116937</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.68019044986733</v>
+        <v>37.64883946986463</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>42.96459128228461</v>
+        <v>46.12440247630589</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>44.31701786995229</v>
+        <v>50.98619311106232</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.99061618930255</v>
+        <v>15.19044282019368</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.35662658723872</v>
+        <v>36.34060164818868</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>43.21778064647411</v>
+        <v>45.26925703307778</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.42800171634046</v>
+        <v>17.91835664423887</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.65087869753562</v>
+        <v>28.75206907839309</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>41.98449677778926</v>
+        <v>38.35623133676455</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>23.71831214646975</v>
+        <v>-1.157186071047494</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.80927933202248</v>
+        <v>23.70892619940069</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>40.02892930567328</v>
+        <v>28.98650214537794</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.54344997433265</v>
+        <v>4.18360189479716</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>41.66087723584592</v>
+        <v>45.87038182612596</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>45.07705744614795</v>
+        <v>58.62259611236523</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>45.01233846765138</v>
+        <v>49.57829828500205</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>49.29624805000361</v>
+        <v>59.54546929572906</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>50.64733527192253</v>
+        <v>65.57747019799753</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.26322385123513</v>
+        <v>17.01909987801362</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>46.68751921145734</v>
+        <v>44.88105584965474</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>49.54529041229091</v>
+        <v>56.31653164092705</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>14.79871152840703</v>
+        <v>6.850204929370914</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.98154468287041</v>
+        <v>22.04134770166904</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>30.25147910792895</v>
+        <v>28.82148614737053</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>11.97410572786129</v>
+        <v>1.160674381424567</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.03328077832819</v>
+        <v>24.71473685467725</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.19643472514491</v>
+        <v>25.10606046082227</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>16.74233926699328</v>
+        <v>6.098812877747289</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.8317097913546</v>
+        <v>42.65497370959628</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.174499459269</v>
+        <v>47.26164553402018</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>32.77423707290296</v>
+        <v>38.25990938876743</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>37.01744732229664</v>
+        <v>43.99553479856311</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>38.34903203293248</v>
+        <v>45.28386973634893</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>24.01952739580825</v>
+        <v>3.187603446721621</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>34.38908569804787</v>
+        <v>26.57042682313022</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>37.23753806002613</v>
+        <v>35.65032869711413</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.59847381923154</v>
+        <v>5.318756545911949</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.90632047798174</v>
+        <v>24.9311184273306</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.26120832291777</v>
+        <v>31.04913276174473</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>14.48129067446456</v>
+        <v>-2.634878228635802</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>27.61731288648332</v>
+        <v>16.94804970364732</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.88782419444569</v>
+        <v>20.91927278195338</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>19.33188781482038</v>
+        <v>-2.355779009770831</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>32.54627358198835</v>
+        <v>34.70917947374056</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>35.97686072243692</v>
+        <v>44.54121915763501</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.75332603285938</v>
+        <v>35.82326957016348</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>40.10626118791343</v>
+        <v>45.71653251226657</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>41.46694882390702</v>
+        <v>49.6391796189705</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>26.90680773365932</v>
+        <v>-4.044805156503973</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>37.46728774584687</v>
+        <v>29.99682350806478</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>40.34335266110841</v>
+        <v>39.52984469398314</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>23.35763865335098</v>
+        <v>4.674144442667366</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.7903277498481</v>
+        <v>25.0724234472959</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.15538178736882</v>
+        <v>33.14372045393765</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>20.60125901113492</v>
+        <v>-5.530849172860361</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>33.89970081472718</v>
+        <v>18.51252334525277</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>37.15152272461447</v>
+        <v>22.48577088479274</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>25.45096936846046</v>
+        <v>-4.534577757083628</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>38.78665237986328</v>
+        <v>38.8383817224484</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>42.23515184339622</v>
+        <v>51.75551612061481</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>42.17288331684877</v>
+        <v>45.95705196273443</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>46.52445434852584</v>
+        <v>56.53827184122525</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>47.88374842245073</v>
+        <v>63.07714682148941</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>33.26882809544861</v>
+        <v>-3.949525166189421</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>43.8857596746561</v>
+        <v>36.4809959688627</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>46.75855671280675</v>
+        <v>48.32334269020198</v>
       </c>
     </row>
   </sheetData>
